--- a/500all/speech_level/speeches_CHRG-114hhrg20652.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20652.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order.    Today we welcome back the Obama administration's top officials for closing the detention center at Guantanamo Bay. In March, these two gentlemen appeared before the committee to discuss the administration's proposal to relocate the prison and its detainees to the continental United States, as well as the process of releasing individuals to foreign countries.    Much of the news from that hearing surrounded Mr. Lewis' revelation that, in his words, ``unfortunately, there have been Americans that have died because of Guantanamo detainees.'' And, indeed, last month the Washington Post reported that the administration believes that at least 12 detainees released from the Guantanamo facility have since attacked U.S. or allied forces in Afghanistan, killing about a half dozen Americans.    That was startling enough. But it is particularly disturbing that--upon close examination--these witnesses made statements to the committee that are inconsistent with the documents and inconsistent with information that the administration has supplied the committee under the law.    Specifically, the committee asked whether the Department of Defense ever knowingly transferred a detainee to a country that did not exhibit an ability to substantially mitigate the risk of recidivism or maintain custody or control of that individual. Mr. Lewis and Mr. Wolosky assured committee members that it had not. Yet numerous intelligence reports provided by the administration suggest that their answers were inaccurate: In fact, the Defense Department had done so on numerous occasions.    The Secretary of State has the sole responsibility to negotiate transfers, including agreements to monitor released detainees. Under the law, Congress regularly receives information from the intelligence community on the return to terrorism rate of individuals released to foreign countries as well as assessments of a country's ability to prevent terrorists from returning to the fight.    Simply put, many countries just aren't up to the job. And a diplomatic agreement to do the job isn't worth the paper it is written on if a country does not have the resources, does not have the training to keep committed terrorists from returning to the battlefield.    Yet the administration has sent Guantanamo terrorists to these countries anyway. To then deceive this committee and the American people is deeply disturbing, and when given the opportunity to correct the record for the committee, they ignored us.    I appreciate that the administration finally responded on Tuesday. But it shouldn't take the calling of a hearing to elicit a return letter, especially on something as consequential as this. This committee has an obligation to conduct oversight. While we have differences of opinion over Guantanamo policy, I don't think anyone here finds the administration's dismissiveness acceptable.    And should anyone think the committee's concerns are theoretical, and specifically I was pressing on these terrorists who had been transferred to Uruguay, it is not theoretical because now Jihad Diyab, who is an al-Qaeda-linked terrorist, was sent from Guantanamo to Uruguay in December 2014.    We sounded the alarm about Uruguay's lack of legal framework. We explained to you about the critical resources to prevent travel outside the country--that that was lacking in the case of Uruguay. And so what is the result?    The result is last month, Jihad Diyab disappeared from Uruguay. His current whereabouts are unknown, and this was after Mr. Wolosky testified to us in March that ``we are confident that the Government of Uruguay is taking appropriate steps to substantially mitigate the risk'' of this former detainee and others sent to Uruguay. Yesterday, CNN, citing U.S. officials, reported that this terrorist was last spotted in Venezuela. He is believed to be headed back to Syria or Yemen.    We have been awaiting answers to the committee's inquiry. But while I've been patient, the President has been in a rush, seemingly willing to release Guantanamo terrorists to wherever he can.    I wish we were not here today. Holding another Guantanamo hearing this week was not my intention. But he is loose and my patience has run out.    And I now turn to the ranking member.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman, and Mr. Wolosky and Mr. Lewis, welcome back and thank you for your service.    Last time you gentlemen were here I made my views on the Guantanamo Prison pretty clear and I would ask that my opening statement from that hearing be included as part of the record of this hearing.</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Wolosky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wolosky. Thank you very much, Mr. Chairman, Ranking Member Engel, distinguished members of the committee. Good morning.    I appreciate your inviting me once again to appear before this committee. I look forward to continuing our discussion in closed session either later today as we have offered or as soon as possible so that we can have a fuller discussion of some of the classified topics we know are of interest to the committee.    Altogether, a total of 779 detainees have passed through Guantanamo and of those 700 have departed. The vast majority of detainees transferred out of Guantanamo to other countries--some 532--were transferred by the administration of George W. Bush. Under President Obama, a total of 159 detainees have been transferred. Today, 79 remain.    President Bush acted to whittle the detainee population because he understood that, and I quote, ``the detention facility had become a propaganda tool for our enemies and a distraction for our allies.'' President Obama has continued detainee transfers for many of the same reasons. Of the 79 detainees detained at Guantanamo today, 29 are currently approved for transfer. Detainees have been designated as approved for transfer during this administration through one of two rigorous interagency processes.    First, soon after taking office, President Obama ordered the first ever comprehensive interagency review of all of the 242 detainees then in U.S. custody.    In 2009 and 2010, the Guantanamo Review Task Force, sometimes also called the Executive Order Task Force, which was comprised of more than 60 national security professionals from across the government, assembled all reasonable available information relevant to determining an appropriate disposition for each detainee.    Then, based on the task force's recommendations, the Departments of Defense, State, Justice and Homeland Security, the Office of the Director for National Intelligence and the Joint Chiefs of Staff unanimously determined the appropriate disposition for each detainee: Transfer, referral for prosecution or continued law of war detention.    Second, pursuant to Executive Order 13567, detainees who are not--who were not approved for transfer in 2009 and 2010 could be subject to additional review by the Periodic Review Board.    The PRB is comprised of senior representatives from six agencies and departments. None of the PRB representatives are political appointees.    Having described how Guantanamo detainees have been approved for transfer, I would now like to briefly describe the process for transferring detainees.    Decisions regarding whether, when and where to transfer a detainee are the culmination of another rigorous interagency process. The Department of State leads diplomatic negotiations with foreign governments regarding the transfer of Guantanamo detainees.    But we are typically joined in our discussions by senior career officials from the Departments of Defense, Justice and Homeland Security as well as those in the intelligence community and on the joint staff. Generally, transfer negotiations occur in two steps.    First, the U.S. Government obtains or reconfirms a political commitment that the potential receiving country is willing in principle to resettle or repatriate detainees and to impose various measures that will substantially mitigate the threat the detainees may pose after transfer.    Second, we engage in technical discussions with foreign officials responsible for implementing these measures. These technical discussions offer the opportunity to tailor the integration and security measures to specific circumstances under consideration, to share best practices from previous detainee transfers and perhaps most importantly to determine based on an individualized assessment of these specific circumstances whether the statutory standard in the NDAA governing the foreign transfer of Guantanamo detainees can be met.    Once we conclude that our diplomatic negotiations will result in a security framework that we assess will substantially mitigate the threat a detainee may pose after transfer, the Secretary of Defense consults with the Secretaries of State, Homeland Security and the Attorney General, the Director of National Intelligence and the Chairman of the Joint Chiefs of Staff on the transfer.    Only after the Secretary of Defense receives the views of those principals and only if he is satisfied that the requirements of the NDAA are satisfied does the Secretary of Defense sign and transmit a certification to the Congress conveying his intention to transfer detainees.    Ladies and gentlemen of the committee, let me close by saying that although we would obviously prefer that no former detainees engage in terrorist or insurgent activity following his transfer, we believe that the low rate of confirmed re-engagement for detainees transferred since January 2009, under 5 percent, is testament to the rigorous interagency approach the administration has taken to both approving detainees for transfer and to negotiating and vetting detainee transfer frameworks.    I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you.    Mr. Lewis.</t>
   </si>
   <si>
-    <t>Lewis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lewis. Chairman Royce, Ranking Member Engel, distinguished members of the committee, Representative Donovan, thank you for the opportunity to testify again regarding the administration's Guantanamo detainee transfer process.    Secretary Carter has approved the transfer of 43 detainees, 28 of whom have been transferred this year. Secretary Hagel approved the transfer of 44 detainees. Secretary Panetta, 7, and Secretary Gates, 65.    During this administration, 159 detainees have been transferred. Mr. Chairman, we understand the importance of this issue to you and this committee and we appreciate the attention you have given to it.    As I stated in March at the outset, I'd like to reiterate one continuing fundamental point regarding this detention facility. The President and his National Security Committee have determined that closing this detention facility is a national security imperative.    Imperative is a strong term. The President in his leadership of the national security team believe that the continued operation of the detention facility weakens our national security.    Closing Guantanamo is about protecting the country, not weakening it. As you know, the importance in closing this detention facility is echoed by former President George W. Bush and a long list of former Secretaries of State, Secretaries of Defense, Joint Staff Chairmen, and other former military leaders.    As Representative Engel noted, a letter was provided to the committee by former flag officers, including a former commandant of the Marine Corps. Transfers from Gitmo are in the national security interest of the United States and are conducted in a safe and responsible manner.    On March 23, 2016, I testified before this committee. During that hearing, as the chairman noted, I was asked whether the Department of Defense had ever knowingly transferred a detainee to a country that did not exhibit an ability to substantially mitigate the risk or control the individual.    In response to that question, I stated that the Department of Defense had not conducted such a transfer. I stand by my response.    We have addressed your concerns, Mr. Chairman, in the letter that we sent to you this week and I, again, apologize for the late response. But I want to briefly highlight several points.    Here's our statutory framework: The 2016 NDAA requires that at least 30 days prior to any transfer and in addition to other requirements the Secretary of Defense certify to Congress that the receiving country has taken or agreed to take steps to substantially mitigate any risk that the individual could attempt to re-engage or otherwise threaten the United States. We have met that statutory requirement with each of our transfers.    Prior to the transfer of any detainee to a foreign country, the United States Government receives security assurances from the receiving country regarding the actions that the receiving country has taken or agrees to take to substantially mitigate the risk.    After the assurances are negotiated, the Secretary of Defense and his senior staff engage in a robust review process that considers many factors, including all of the intelligence that the government has regarding the threat posed by the individual detainee and the security assurances.    Importantly, updated intelligence, medical, and compliance information is provided to each country regarding the detainees under consideration for the transfer. Many countries also take the opportunity to travel to Gitmo to interview transfer candidates.    After full consideration of all this information, including a full and updated assessment from the intelligence community, the Secretary makes the determination to that I told you about earlier.    As Secretary Carter has testified and Secretary Hagel testified, they take this responsibility very seriously. Secretary Carter has said he will not transfer a detainee that he does not believe is in the security interests of the United States to do so.    These transfers have not been conducted in a vacuum, sir. Each transfer is formally notified to Congress and we regularly brief members and staff on transfers.    With the notice of each transfer we offer to brief congressional leadership and members and staff of all the national security committees. I appreciate the opportunity we have had to regularly brief you and your staff regarding these transfers.    Briefly, I think it is important to put these recent transfer decisions on foreign policy context for this committee. Many countries in the international community want to close Gitmo and have stepped up to help us.    Specifically, over 30 countries since 2009 have accepted for resettlement Guantanamo detainees that are not nationals of their country.    Additionally, there is sustained support for our closure efforts from civil society organizations, both domestic and abroad, including the Organization for American States. Even the Vatican has expressed the support for our closure efforts.    In summary, each transfer is only approved after careful scrutiny by the intensive interagency review process and the negotiation of the security assurances sufficient to substantially mitigate any threat.    Finally, I'd like to take a moment to again recognize the military service members who conduct detention operations at Guantanamo. These men and women continue to have our deepest appreciation for their service and the professionalism they display each and every day on behalf of our Nation.    Thank you, Mr. Chairman. I look forward to your questions.</t>
   </si>
   <si>
@@ -178,9 +166,6 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Chairman Royce, for calling this hearing and for continuing to demand transparency and accountability from the administration regarding its plans for naval station Guantanamo Bay and the detention center.    As you point out, Mr. Chairman, the administration has not been forthcoming with the American people about the release of dangerous terrorists to various nations. The reality is that the situation is far different than what we've been told.    So I continue to ask myself why does a nation like Uruguay, why does a nation like Ghana, why does a nation like Senegal, as so many others, why would they want to take in these dangerous terrorists unless they believe that the benefits outweigh the risk? Unless the administration convinced them that the benefits outweighed the risk.    And not only that, we are talking about a high-risk, high-threat individual and that person has experience in evading authorities, will conduct operations, going to nations that have limited intelligence that do not possess the most sophisticated monitoring system.    That was obvious with the Uruguay transfer. And we are to believe that the terrorists will not use that to their advantage? That they will be properly overseen? It would probably take them just 1 day to realize how lax the security is in Uruguay, for example.    So it is not a surprise, I think, to any of us that one of these individuals managed to flee Uruguay, where we now know that his movement was not required to be restricted, to Brazil and from there from who knows.    As the chairman said, he may be en route to Syria or there already. So I would ask you if it is possible to get a yes or no answer, has the administration promised any of these countries, whether it is Uruguay, Ghana, Senegal, whatever, cash for taking in these individuals and if so how much, how often, and to which countries?</t>
   </si>
   <si>
@@ -241,9 +226,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Okay. I would like to comment on this over the next 5 minutes and I'll probably offend both political parties. The prior administration did release more terrorists than the current administration.    More of those released by the prior administration have been caught fighting us on the battlefield. The fact is, much as we like to fight as Democrats and Republicans, the policy has been the same in both administrations.    House them only in Guantanamo because we don't have the political guts to house them here in the United States and release as many as possible--far too many, far too quickly, and massively understate the costs of the release.    We are told that it is wrong to keep them there for the duration of the war because the war has lasted too long. That is their fault. They waged war against America and no, we never guaranteed them that the war would be short. The purpose of incarcerating POWs is not only to keep them off the battlefield but to deter their comrades.    When we tell the terrorists around the world if you get caught you'll get released while the war is still going on, we encourage their recruitment.    Now, we are told that there are only 12 identified circumstances when Americans have died because of this release. That is such a massive undercount. First of all, when we release somebody and they rejoin the battlefield, do they send us a report?    Are they listed on LinkedIn? New status, rejoined the terrorist movement? And then when one of them at least--when an American dies on the battlefield do we get a report from the terrorists, here's a list of the people who killed him--here's a list of the people who provided them with logistics--here are the people that provided the recruiting--here are the people that provided the financing?    So I would--unless we are certain that one of these released people is being monitored and is not doing anything to help the terrorists we have to assume that they are waging war against us as they did before and the cost of release is also the incredible concessions--Ileana Ros-Lehtinen brought this to our attention.    All the winks, all the nods. Every country in the world, especially small countries, no. Take one detainee. The President of the United States is personally indebted to you and when you've got a fishing concern or if you're seeking something from the United States now or later, the answer is yes. We'll never get an accounting of that because you can't account for the winks and the nods.    Now, we are told that Gitmo is a--that we get a tremendous propaganda advantage if Gitmo is closed. Of course, we only partially closed it.    We have no propaganda advantage. It's still a symbol the other side can use as long as it is open with one detainee. But we could bring these prisoners to the United States. That does not enhance their legal status.    The Supreme Court has ruled in the Boumediene case and the Hamdan case that they have just as many legal rights there as they would here.    But we--here's an America where we accepted nuclear bases in our States knowing that they were targets for the Soviet Union and now we can't even accept a prisoner and we whip up all this fury.    We have 443 convicted terrorists in American prisons right now. I'll ask our witnesses to raise their hands if they are aware of any of those that escaped. I see no hands going up. I am not aware and I've researched this.    We've got Moussaoui, we've got Tsarnaev, we got the shoe bomber, the underwear bomber, the World Trade Center in 1993 bombers, the Oklahoma City bomber, and the Unabomber, and we are trying to bring to the United States El Chapo, who escaped Mexican prisons twice.    We can incarcerate people here and obtain the political advantage that we are told can be achieved by shutting down Gitmo. But instead we constantly vote on ways to not do it. If the legal rights of these POWs in the United States is too great if they are on U.S. soil, that is the fault of Congress. We can pass laws identifying that these are POWs.    They're nonuniformed enemy combatants and entitled to less protection than those who would wear uniforms fighting against us. So we've got a lot of dead Americans as a result of this catch and release program.    We've got one party who says we can't house them here, although we are able to house terrorists here in our prisons, and we've got another political party so anxious to shut things down that we massively understate the cost of releasing, and I yield back.</t>
   </si>
   <si>
@@ -253,9 +235,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Madam Chair.    I would just like to bring us up to speed in one area. Is it true that under current law, closing Guantanamo is prohibited? This isn't a trick question.</t>
   </si>
   <si>
@@ -352,9 +331,6 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Do you need some more time, the gentleman from California?</t>
   </si>
   <si>
@@ -430,9 +406,6 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you, Mr. Chairman.    Last time you were here, Mr. Lewis, you testified that Americans have been killed and I am going to piggyback on Mr. Issa and Mr. Duncan's questions.    You subsequently notified the committee that those deaths occurred in Afghanistan by as many as 14 former detainees all who were released by the Bush administration and I'd just like to ask a few questions about that.    How many Americans were killed? Were they U.S. servicemen and -women, civilians or both? What are their names and where are they from?</t>
   </si>
   <si>
@@ -469,18 +442,12 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. The Chair now recognizes Mr. Weber.</t>
   </si>
   <si>
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chair.    Envoy Wolosky, is that how you're saying that?</t>
   </si>
   <si>
@@ -697,9 +664,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Chairman Royce, and thank you for your leadership on this issue, and it is so important. I've had the opportunity to visit Guantanamo twice to see the personnel there, the professionalism of our military. And it is the place where terrorists should be.    In my home State of South Carolina, we've learned a lesson. There was one terrorist at the Navy brig in Charleston. He's had a consequence.    He's attracted more terrorists to come to the community and threaten attacks on the facility, putting schools at risk, neighborhoods in the immediate neighborhood at risk. It's utterly absurd the thought of bringing them to the United States in any way or releasing them, and it is interesting you say Yemen.    You release people to Yemen, which was supposed to be an example of great success by this administration of establishing a stable country and within days of releasing and pardoning terrorists the country collapsed.    And it would be interesting to know, what did happen to the persons who have been released to Yemen previously?</t>
   </si>
   <si>
@@ -743,9 +707,6 @@
   </si>
   <si>
     <t>400654</t>
-  </si>
-  <si>
-    <t>Michael T. McCaul</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. McCaul. Thank you, Mr. Chairman.    You know, the President campaigned on a promise to close Guantanamo. Is it fair to say that that campaign promise will not be fulfilled?</t>
@@ -1210,11 +1171,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1234,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1262,11 +1219,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1286,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1314,11 +1267,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1338,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1366,11 +1315,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1390,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1418,11 +1363,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1442,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1470,11 +1411,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1494,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1520,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1548,11 +1483,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1572,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1598,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1626,11 +1555,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1650,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1676,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1704,11 +1627,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1728,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1754,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1782,11 +1699,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1806,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1834,11 +1747,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1858,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1886,11 +1795,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1910,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1936,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1962,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1988,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2014,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2040,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2066,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2092,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2118,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2144,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2172,11 +2059,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2196,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2222,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2248,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2274,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2300,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>54</v>
-      </c>
-      <c r="H44" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2326,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2352,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2378,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2404,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2430,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2456,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2482,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2508,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2534,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2560,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2586,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2612,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2638,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2666,11 +2515,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2690,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2716,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2742,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2768,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2794,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2820,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2846,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2872,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2898,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>79</v>
-      </c>
-      <c r="H67" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2924,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2950,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2976,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3002,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3028,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3054,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3080,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3106,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3132,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3158,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3184,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3210,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3236,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3262,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3288,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3314,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3340,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3366,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3392,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3418,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3444,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3470,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3496,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3522,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>78</v>
-      </c>
-      <c r="G91" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3548,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3574,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3600,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3626,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3652,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3678,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>111</v>
-      </c>
-      <c r="G97" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3704,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3730,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3756,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3782,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>111</v>
-      </c>
-      <c r="G101" t="s">
-        <v>112</v>
-      </c>
-      <c r="H101" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3808,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3834,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G103" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3860,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3886,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3912,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3938,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>111</v>
-      </c>
-      <c r="G107" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3964,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3990,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>111</v>
-      </c>
-      <c r="G109" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4016,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4042,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>111</v>
-      </c>
-      <c r="G111" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4068,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4094,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>111</v>
-      </c>
-      <c r="G113" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4120,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4148,11 +3883,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4172,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>111</v>
-      </c>
-      <c r="G116" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4200,11 +3931,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4224,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>111</v>
-      </c>
-      <c r="G118" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4252,11 +3979,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4276,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>137</v>
-      </c>
-      <c r="G120" t="s">
-        <v>138</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4302,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4328,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>137</v>
-      </c>
-      <c r="G122" t="s">
-        <v>138</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4354,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4380,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>137</v>
-      </c>
-      <c r="G124" t="s">
-        <v>138</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4406,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4432,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>137</v>
-      </c>
-      <c r="G126" t="s">
-        <v>138</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4458,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4484,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4510,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
-      </c>
-      <c r="G129" t="s">
+        <v>129</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
         <v>138</v>
-      </c>
-      <c r="H129" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4536,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4562,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>137</v>
-      </c>
-      <c r="G131" t="s">
-        <v>138</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4588,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>150</v>
-      </c>
-      <c r="G132" t="s">
-        <v>151</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4614,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
-      </c>
-      <c r="G133" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4640,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4666,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
-      </c>
-      <c r="G135" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4692,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4718,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>153</v>
-      </c>
-      <c r="G137" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4744,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4770,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>153</v>
-      </c>
-      <c r="G139" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4796,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4822,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>153</v>
-      </c>
-      <c r="G141" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4848,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4874,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
+        <v>143</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>153</v>
-      </c>
-      <c r="G143" t="s">
-        <v>154</v>
-      </c>
-      <c r="H143" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4900,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4926,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>153</v>
-      </c>
-      <c r="G145" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4952,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4978,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>153</v>
-      </c>
-      <c r="G147" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5004,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5030,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>153</v>
-      </c>
-      <c r="G149" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5056,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5082,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>153</v>
-      </c>
-      <c r="G151" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5108,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5134,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5160,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>153</v>
-      </c>
-      <c r="G154" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5186,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5212,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>153</v>
-      </c>
-      <c r="G156" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5238,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5264,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>153</v>
-      </c>
-      <c r="G158" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5290,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5316,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>153</v>
-      </c>
-      <c r="G160" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5342,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5368,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>153</v>
-      </c>
-      <c r="G162" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5394,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5420,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>153</v>
-      </c>
-      <c r="G164" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5446,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5472,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>153</v>
-      </c>
-      <c r="G166" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5498,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5524,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>153</v>
-      </c>
-      <c r="G168" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5550,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5576,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>153</v>
-      </c>
-      <c r="G170" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5602,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5628,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>153</v>
-      </c>
-      <c r="G172" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5654,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5680,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>153</v>
-      </c>
-      <c r="G174" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5706,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5732,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>153</v>
-      </c>
-      <c r="G176" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5758,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5784,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>153</v>
-      </c>
-      <c r="G178" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5810,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5836,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>153</v>
-      </c>
-      <c r="G180" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5862,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5888,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>153</v>
-      </c>
-      <c r="G182" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5914,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5940,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>153</v>
-      </c>
-      <c r="G184" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5966,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5992,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>153</v>
-      </c>
-      <c r="G186" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6018,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6044,13 +5633,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>153</v>
-      </c>
-      <c r="G188" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6070,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6096,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>153</v>
-      </c>
-      <c r="G190" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6122,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6148,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>153</v>
-      </c>
-      <c r="G192" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6174,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6200,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>153</v>
-      </c>
-      <c r="G194" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6226,13 +5801,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6252,13 +5825,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>153</v>
-      </c>
-      <c r="G196" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6278,13 +5849,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6304,13 +5873,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>153</v>
-      </c>
-      <c r="G198" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6330,13 +5897,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6356,13 +5921,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>153</v>
-      </c>
-      <c r="G200" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6382,13 +5945,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>150</v>
-      </c>
-      <c r="G201" t="s">
-        <v>151</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6408,13 +5969,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>153</v>
-      </c>
-      <c r="G202" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6434,13 +5993,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>20</v>
-      </c>
-      <c r="G203" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6460,13 +6017,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>153</v>
-      </c>
-      <c r="G204" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6486,13 +6041,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6512,13 +6065,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>153</v>
-      </c>
-      <c r="G206" t="s">
-        <v>154</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6540,11 +6091,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6564,13 +6113,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>226</v>
-      </c>
-      <c r="G208" t="s">
-        <v>227</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6590,13 +6137,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6616,13 +6161,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>226</v>
-      </c>
-      <c r="G210" t="s">
-        <v>227</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6644,11 +6187,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6668,13 +6209,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>150</v>
-      </c>
-      <c r="G212" t="s">
-        <v>151</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6694,13 +6233,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>20</v>
-      </c>
-      <c r="G213" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6720,13 +6257,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>150</v>
-      </c>
-      <c r="G214" t="s">
-        <v>151</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6746,13 +6281,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
-      </c>
-      <c r="G215" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6772,13 +6305,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>150</v>
-      </c>
-      <c r="G216" t="s">
-        <v>151</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6798,13 +6329,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
-      </c>
-      <c r="G217" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6824,13 +6353,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>150</v>
-      </c>
-      <c r="G218" t="s">
-        <v>151</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6850,13 +6377,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6876,13 +6401,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>150</v>
-      </c>
-      <c r="G220" t="s">
-        <v>151</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6904,11 +6427,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6928,13 +6449,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>242</v>
-      </c>
-      <c r="G222" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6954,13 +6473,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6980,13 +6497,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
-      </c>
-      <c r="G224" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7006,13 +6521,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7032,13 +6545,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>242</v>
-      </c>
-      <c r="G226" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7058,13 +6569,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>20</v>
-      </c>
-      <c r="G227" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7084,13 +6593,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>242</v>
-      </c>
-      <c r="G228" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7110,13 +6617,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>20</v>
-      </c>
-      <c r="G229" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7136,13 +6641,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>242</v>
-      </c>
-      <c r="G230" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7162,13 +6665,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>20</v>
-      </c>
-      <c r="G231" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7188,13 +6689,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>242</v>
-      </c>
-      <c r="G232" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7214,13 +6713,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>20</v>
-      </c>
-      <c r="G233" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7240,13 +6737,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>242</v>
-      </c>
-      <c r="G234" t="s">
+        <v>230</v>
+      </c>
+      <c r="G234" t="s"/>
+      <c r="H234" t="s">
         <v>243</v>
-      </c>
-      <c r="H234" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7266,13 +6761,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>20</v>
-      </c>
-      <c r="G235" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7292,13 +6785,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>242</v>
-      </c>
-      <c r="G236" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7318,13 +6809,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>20</v>
-      </c>
-      <c r="G237" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7344,13 +6833,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>242</v>
-      </c>
-      <c r="G238" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7370,13 +6857,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7396,13 +6881,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>242</v>
-      </c>
-      <c r="G240" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7422,13 +6905,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7448,13 +6929,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>242</v>
-      </c>
-      <c r="G242" t="s">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7476,11 +6955,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7500,13 +6977,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20652.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20652.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order.    Today we welcome back the Obama administration's top officials for closing the detention center at Guantanamo Bay. In March, these two gentlemen appeared before the committee to discuss the administration's proposal to relocate the prison and its detainees to the continental United States, as well as the process of releasing individuals to foreign countries.    Much of the news from that hearing surrounded Mr. Lewis' revelation that, in his words, ``unfortunately, there have been Americans that have died because of Guantanamo detainees.'' And, indeed, last month the Washington Post reported that the administration believes that at least 12 detainees released from the Guantanamo facility have since attacked U.S. or allied forces in Afghanistan, killing about a half dozen Americans.    That was startling enough. But it is particularly disturbing that--upon close examination--these witnesses made statements to the committee that are inconsistent with the documents and inconsistent with information that the administration has supplied the committee under the law.    Specifically, the committee asked whether the Department of Defense ever knowingly transferred a detainee to a country that did not exhibit an ability to substantially mitigate the risk of recidivism or maintain custody or control of that individual. Mr. Lewis and Mr. Wolosky assured committee members that it had not. Yet numerous intelligence reports provided by the administration suggest that their answers were inaccurate: In fact, the Defense Department had done so on numerous occasions.    The Secretary of State has the sole responsibility to negotiate transfers, including agreements to monitor released detainees. Under the law, Congress regularly receives information from the intelligence community on the return to terrorism rate of individuals released to foreign countries as well as assessments of a country's ability to prevent terrorists from returning to the fight.    Simply put, many countries just aren't up to the job. And a diplomatic agreement to do the job isn't worth the paper it is written on if a country does not have the resources, does not have the training to keep committed terrorists from returning to the battlefield.    Yet the administration has sent Guantanamo terrorists to these countries anyway. To then deceive this committee and the American people is deeply disturbing, and when given the opportunity to correct the record for the committee, they ignored us.    I appreciate that the administration finally responded on Tuesday. But it shouldn't take the calling of a hearing to elicit a return letter, especially on something as consequential as this. This committee has an obligation to conduct oversight. While we have differences of opinion over Guantanamo policy, I don't think anyone here finds the administration's dismissiveness acceptable.    And should anyone think the committee's concerns are theoretical, and specifically I was pressing on these terrorists who had been transferred to Uruguay, it is not theoretical because now Jihad Diyab, who is an al-Qaeda-linked terrorist, was sent from Guantanamo to Uruguay in December 2014.    We sounded the alarm about Uruguay's lack of legal framework. We explained to you about the critical resources to prevent travel outside the country--that that was lacking in the case of Uruguay. And so what is the result?    The result is last month, Jihad Diyab disappeared from Uruguay. His current whereabouts are unknown, and this was after Mr. Wolosky testified to us in March that ``we are confident that the Government of Uruguay is taking appropriate steps to substantially mitigate the risk'' of this former detainee and others sent to Uruguay. Yesterday, CNN, citing U.S. officials, reported that this terrorist was last spotted in Venezuela. He is believed to be headed back to Syria or Yemen.    We have been awaiting answers to the committee's inquiry. But while I've been patient, the President has been in a rush, seemingly willing to release Guantanamo terrorists to wherever he can.    I wish we were not here today. Holding another Guantanamo hearing this week was not my intention. But he is loose and my patience has run out.    And I now turn to the ranking member.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you, Mr. Chairman, and Mr. Wolosky and Mr. Lewis, welcome back and thank you for your service.    Last time you gentlemen were here I made my views on the Guantanamo Prison pretty clear and I would ask that my opening statement from that hearing be included as part of the record of this hearing.</t>
   </si>
   <si>
@@ -73,12 +88,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Wolosky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wolosky. Thank you very much, Mr. Chairman, Ranking Member Engel, distinguished members of the committee. Good morning.    I appreciate your inviting me once again to appear before this committee. I look forward to continuing our discussion in closed session either later today as we have offered or as soon as possible so that we can have a fuller discussion of some of the classified topics we know are of interest to the committee.    Altogether, a total of 779 detainees have passed through Guantanamo and of those 700 have departed. The vast majority of detainees transferred out of Guantanamo to other countries--some 532--were transferred by the administration of George W. Bush. Under President Obama, a total of 159 detainees have been transferred. Today, 79 remain.    President Bush acted to whittle the detainee population because he understood that, and I quote, ``the detention facility had become a propaganda tool for our enemies and a distraction for our allies.'' President Obama has continued detainee transfers for many of the same reasons. Of the 79 detainees detained at Guantanamo today, 29 are currently approved for transfer. Detainees have been designated as approved for transfer during this administration through one of two rigorous interagency processes.    First, soon after taking office, President Obama ordered the first ever comprehensive interagency review of all of the 242 detainees then in U.S. custody.    In 2009 and 2010, the Guantanamo Review Task Force, sometimes also called the Executive Order Task Force, which was comprised of more than 60 national security professionals from across the government, assembled all reasonable available information relevant to determining an appropriate disposition for each detainee.    Then, based on the task force's recommendations, the Departments of Defense, State, Justice and Homeland Security, the Office of the Director for National Intelligence and the Joint Chiefs of Staff unanimously determined the appropriate disposition for each detainee: Transfer, referral for prosecution or continued law of war detention.    Second, pursuant to Executive Order 13567, detainees who are not--who were not approved for transfer in 2009 and 2010 could be subject to additional review by the Periodic Review Board.    The PRB is comprised of senior representatives from six agencies and departments. None of the PRB representatives are political appointees.    Having described how Guantanamo detainees have been approved for transfer, I would now like to briefly describe the process for transferring detainees.    Decisions regarding whether, when and where to transfer a detainee are the culmination of another rigorous interagency process. The Department of State leads diplomatic negotiations with foreign governments regarding the transfer of Guantanamo detainees.    But we are typically joined in our discussions by senior career officials from the Departments of Defense, Justice and Homeland Security as well as those in the intelligence community and on the joint staff. Generally, transfer negotiations occur in two steps.    First, the U.S. Government obtains or reconfirms a political commitment that the potential receiving country is willing in principle to resettle or repatriate detainees and to impose various measures that will substantially mitigate the threat the detainees may pose after transfer.    Second, we engage in technical discussions with foreign officials responsible for implementing these measures. These technical discussions offer the opportunity to tailor the integration and security measures to specific circumstances under consideration, to share best practices from previous detainee transfers and perhaps most importantly to determine based on an individualized assessment of these specific circumstances whether the statutory standard in the NDAA governing the foreign transfer of Guantanamo detainees can be met.    Once we conclude that our diplomatic negotiations will result in a security framework that we assess will substantially mitigate the threat a detainee may pose after transfer, the Secretary of Defense consults with the Secretaries of State, Homeland Security and the Attorney General, the Director of National Intelligence and the Chairman of the Joint Chiefs of Staff on the transfer.    Only after the Secretary of Defense receives the views of those principals and only if he is satisfied that the requirements of the NDAA are satisfied does the Secretary of Defense sign and transmit a certification to the Congress conveying his intention to transfer detainees.    Ladies and gentlemen of the committee, let me close by saying that although we would obviously prefer that no former detainees engage in terrorist or insurgent activity following his transfer, we believe that the low rate of confirmed re-engagement for detainees transferred since January 2009, under 5 percent, is testament to the rigorous interagency approach the administration has taken to both approving detainees for transfer and to negotiating and vetting detainee transfer frameworks.    I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you.    Mr. Lewis.</t>
   </si>
   <si>
+    <t>Lewis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lewis. Chairman Royce, Ranking Member Engel, distinguished members of the committee, Representative Donovan, thank you for the opportunity to testify again regarding the administration's Guantanamo detainee transfer process.    Secretary Carter has approved the transfer of 43 detainees, 28 of whom have been transferred this year. Secretary Hagel approved the transfer of 44 detainees. Secretary Panetta, 7, and Secretary Gates, 65.    During this administration, 159 detainees have been transferred. Mr. Chairman, we understand the importance of this issue to you and this committee and we appreciate the attention you have given to it.    As I stated in March at the outset, I'd like to reiterate one continuing fundamental point regarding this detention facility. The President and his National Security Committee have determined that closing this detention facility is a national security imperative.    Imperative is a strong term. The President in his leadership of the national security team believe that the continued operation of the detention facility weakens our national security.    Closing Guantanamo is about protecting the country, not weakening it. As you know, the importance in closing this detention facility is echoed by former President George W. Bush and a long list of former Secretaries of State, Secretaries of Defense, Joint Staff Chairmen, and other former military leaders.    As Representative Engel noted, a letter was provided to the committee by former flag officers, including a former commandant of the Marine Corps. Transfers from Gitmo are in the national security interest of the United States and are conducted in a safe and responsible manner.    On March 23, 2016, I testified before this committee. During that hearing, as the chairman noted, I was asked whether the Department of Defense had ever knowingly transferred a detainee to a country that did not exhibit an ability to substantially mitigate the risk or control the individual.    In response to that question, I stated that the Department of Defense had not conducted such a transfer. I stand by my response.    We have addressed your concerns, Mr. Chairman, in the letter that we sent to you this week and I, again, apologize for the late response. But I want to briefly highlight several points.    Here's our statutory framework: The 2016 NDAA requires that at least 30 days prior to any transfer and in addition to other requirements the Secretary of Defense certify to Congress that the receiving country has taken or agreed to take steps to substantially mitigate any risk that the individual could attempt to re-engage or otherwise threaten the United States. We have met that statutory requirement with each of our transfers.    Prior to the transfer of any detainee to a foreign country, the United States Government receives security assurances from the receiving country regarding the actions that the receiving country has taken or agrees to take to substantially mitigate the risk.    After the assurances are negotiated, the Secretary of Defense and his senior staff engage in a robust review process that considers many factors, including all of the intelligence that the government has regarding the threat posed by the individual detainee and the security assurances.    Importantly, updated intelligence, medical, and compliance information is provided to each country regarding the detainees under consideration for the transfer. Many countries also take the opportunity to travel to Gitmo to interview transfer candidates.    After full consideration of all this information, including a full and updated assessment from the intelligence community, the Secretary makes the determination to that I told you about earlier.    As Secretary Carter has testified and Secretary Hagel testified, they take this responsibility very seriously. Secretary Carter has said he will not transfer a detainee that he does not believe is in the security interests of the United States to do so.    These transfers have not been conducted in a vacuum, sir. Each transfer is formally notified to Congress and we regularly brief members and staff on transfers.    With the notice of each transfer we offer to brief congressional leadership and members and staff of all the national security committees. I appreciate the opportunity we have had to regularly brief you and your staff regarding these transfers.    Briefly, I think it is important to put these recent transfer decisions on foreign policy context for this committee. Many countries in the international community want to close Gitmo and have stepped up to help us.    Specifically, over 30 countries since 2009 have accepted for resettlement Guantanamo detainees that are not nationals of their country.    Additionally, there is sustained support for our closure efforts from civil society organizations, both domestic and abroad, including the Organization for American States. Even the Vatican has expressed the support for our closure efforts.    In summary, each transfer is only approved after careful scrutiny by the intensive interagency review process and the negotiation of the security assurances sufficient to substantially mitigate any threat.    Finally, I'd like to take a moment to again recognize the military service members who conduct detention operations at Guantanamo. These men and women continue to have our deepest appreciation for their service and the professionalism they display each and every day on behalf of our Nation.    Thank you, Mr. Chairman. I look forward to your questions.</t>
   </si>
   <si>
@@ -166,6 +187,12 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Chairman Royce, for calling this hearing and for continuing to demand transparency and accountability from the administration regarding its plans for naval station Guantanamo Bay and the detention center.    As you point out, Mr. Chairman, the administration has not been forthcoming with the American people about the release of dangerous terrorists to various nations. The reality is that the situation is far different than what we've been told.    So I continue to ask myself why does a nation like Uruguay, why does a nation like Ghana, why does a nation like Senegal, as so many others, why would they want to take in these dangerous terrorists unless they believe that the benefits outweigh the risk? Unless the administration convinced them that the benefits outweighed the risk.    And not only that, we are talking about a high-risk, high-threat individual and that person has experience in evading authorities, will conduct operations, going to nations that have limited intelligence that do not possess the most sophisticated monitoring system.    That was obvious with the Uruguay transfer. And we are to believe that the terrorists will not use that to their advantage? That they will be properly overseen? It would probably take them just 1 day to realize how lax the security is in Uruguay, for example.    So it is not a surprise, I think, to any of us that one of these individuals managed to flee Uruguay, where we now know that his movement was not required to be restricted, to Brazil and from there from who knows.    As the chairman said, he may be en route to Syria or there already. So I would ask you if it is possible to get a yes or no answer, has the administration promised any of these countries, whether it is Uruguay, Ghana, Senegal, whatever, cash for taking in these individuals and if so how much, how often, and to which countries?</t>
   </si>
   <si>
@@ -226,6 +253,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Okay. I would like to comment on this over the next 5 minutes and I'll probably offend both political parties. The prior administration did release more terrorists than the current administration.    More of those released by the prior administration have been caught fighting us on the battlefield. The fact is, much as we like to fight as Democrats and Republicans, the policy has been the same in both administrations.    House them only in Guantanamo because we don't have the political guts to house them here in the United States and release as many as possible--far too many, far too quickly, and massively understate the costs of the release.    We are told that it is wrong to keep them there for the duration of the war because the war has lasted too long. That is their fault. They waged war against America and no, we never guaranteed them that the war would be short. The purpose of incarcerating POWs is not only to keep them off the battlefield but to deter their comrades.    When we tell the terrorists around the world if you get caught you'll get released while the war is still going on, we encourage their recruitment.    Now, we are told that there are only 12 identified circumstances when Americans have died because of this release. That is such a massive undercount. First of all, when we release somebody and they rejoin the battlefield, do they send us a report?    Are they listed on LinkedIn? New status, rejoined the terrorist movement? And then when one of them at least--when an American dies on the battlefield do we get a report from the terrorists, here's a list of the people who killed him--here's a list of the people who provided them with logistics--here are the people that provided the recruiting--here are the people that provided the financing?    So I would--unless we are certain that one of these released people is being monitored and is not doing anything to help the terrorists we have to assume that they are waging war against us as they did before and the cost of release is also the incredible concessions--Ileana Ros-Lehtinen brought this to our attention.    All the winks, all the nods. Every country in the world, especially small countries, no. Take one detainee. The President of the United States is personally indebted to you and when you've got a fishing concern or if you're seeking something from the United States now or later, the answer is yes. We'll never get an accounting of that because you can't account for the winks and the nods.    Now, we are told that Gitmo is a--that we get a tremendous propaganda advantage if Gitmo is closed. Of course, we only partially closed it.    We have no propaganda advantage. It's still a symbol the other side can use as long as it is open with one detainee. But we could bring these prisoners to the United States. That does not enhance their legal status.    The Supreme Court has ruled in the Boumediene case and the Hamdan case that they have just as many legal rights there as they would here.    But we--here's an America where we accepted nuclear bases in our States knowing that they were targets for the Soviet Union and now we can't even accept a prisoner and we whip up all this fury.    We have 443 convicted terrorists in American prisons right now. I'll ask our witnesses to raise their hands if they are aware of any of those that escaped. I see no hands going up. I am not aware and I've researched this.    We've got Moussaoui, we've got Tsarnaev, we got the shoe bomber, the underwear bomber, the World Trade Center in 1993 bombers, the Oklahoma City bomber, and the Unabomber, and we are trying to bring to the United States El Chapo, who escaped Mexican prisons twice.    We can incarcerate people here and obtain the political advantage that we are told can be achieved by shutting down Gitmo. But instead we constantly vote on ways to not do it. If the legal rights of these POWs in the United States is too great if they are on U.S. soil, that is the fault of Congress. We can pass laws identifying that these are POWs.    They're nonuniformed enemy combatants and entitled to less protection than those who would wear uniforms fighting against us. So we've got a lot of dead Americans as a result of this catch and release program.    We've got one party who says we can't house them here, although we are able to house terrorists here in our prisons, and we've got another political party so anxious to shut things down that we massively understate the cost of releasing, and I yield back.</t>
   </si>
   <si>
@@ -235,6 +268,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Madam Chair.    I would just like to bring us up to speed in one area. Is it true that under current law, closing Guantanamo is prohibited? This isn't a trick question.</t>
   </si>
   <si>
@@ -331,6 +370,12 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. Do you need some more time, the gentleman from California?</t>
   </si>
   <si>
@@ -406,6 +451,12 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you, Mr. Chairman.    Last time you were here, Mr. Lewis, you testified that Americans have been killed and I am going to piggyback on Mr. Issa and Mr. Duncan's questions.    You subsequently notified the committee that those deaths occurred in Afghanistan by as many as 14 former detainees all who were released by the Bush administration and I'd just like to ask a few questions about that.    How many Americans were killed? Were they U.S. servicemen and -women, civilians or both? What are their names and where are they from?</t>
   </si>
   <si>
@@ -442,12 +493,24 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. The Chair now recognizes Mr. Weber.</t>
   </si>
   <si>
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chair.    Envoy Wolosky, is that how you're saying that?</t>
   </si>
   <si>
@@ -664,6 +727,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Chairman Royce, and thank you for your leadership on this issue, and it is so important. I've had the opportunity to visit Guantanamo twice to see the personnel there, the professionalism of our military. And it is the place where terrorists should be.    In my home State of South Carolina, we've learned a lesson. There was one terrorist at the Navy brig in Charleston. He's had a consequence.    He's attracted more terrorists to come to the community and threaten attacks on the facility, putting schools at risk, neighborhoods in the immediate neighborhood at risk. It's utterly absurd the thought of bringing them to the United States in any way or releasing them, and it is interesting you say Yemen.    You release people to Yemen, which was supposed to be an example of great success by this administration of establishing a stable country and within days of releasing and pardoning terrorists the country collapsed.    And it would be interesting to know, what did happen to the persons who have been released to Yemen previously?</t>
   </si>
   <si>
@@ -707,6 +776,12 @@
   </si>
   <si>
     <t>400654</t>
+  </si>
+  <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Michael</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. McCaul. Thank you, Mr. Chairman.    You know, the President campaigned on a promise to close Guantanamo. Is it fair to say that that campaign promise will not be fulfilled?</t>
@@ -1121,7 +1196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,7 +1204,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,5837 +1226,6837 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
       <c r="H40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
       <c r="H42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
       <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
       <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>57</v>
+      </c>
       <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
       <c r="H51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
       <c r="H53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>57</v>
+      </c>
       <c r="H55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>57</v>
+      </c>
       <c r="H57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G60" t="s">
+        <v>57</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G67" t="s">
+        <v>84</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G71" t="s">
+        <v>84</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
       <c r="H73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>72</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
       <c r="H75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
       <c r="H77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>72</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
       <c r="H79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
       <c r="H81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>72</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G83" t="s">
+        <v>84</v>
+      </c>
       <c r="H83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
       <c r="H85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>72</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
       <c r="H87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>72</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G89" t="s">
+        <v>84</v>
+      </c>
       <c r="H89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>72</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G91" t="s">
+        <v>84</v>
+      </c>
       <c r="H91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>72</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G93" t="s">
+        <v>84</v>
+      </c>
       <c r="H93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>49</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G94" t="s">
+        <v>57</v>
+      </c>
       <c r="H94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G95" t="s">
+        <v>118</v>
+      </c>
       <c r="H95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>72</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G96" t="s">
+        <v>84</v>
+      </c>
       <c r="H96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
+      </c>
       <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>72</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
       <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G99" t="s">
+        <v>118</v>
+      </c>
       <c r="H99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G101" t="s">
+        <v>118</v>
+      </c>
       <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G103" t="s">
+        <v>118</v>
+      </c>
       <c r="H103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>104</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G105" t="s">
+        <v>118</v>
+      </c>
       <c r="H105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>104</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G107" t="s">
+        <v>118</v>
+      </c>
       <c r="H107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>104</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G109" t="s">
+        <v>118</v>
+      </c>
       <c r="H109" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G111" t="s">
+        <v>118</v>
+      </c>
       <c r="H111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
       <c r="H113" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>104</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G116" t="s">
+        <v>118</v>
+      </c>
       <c r="H116" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>104</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G118" t="s">
+        <v>118</v>
+      </c>
       <c r="H118" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G120" t="s">
+        <v>145</v>
+      </c>
       <c r="H120" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>129</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G122" t="s">
+        <v>145</v>
+      </c>
       <c r="H122" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>129</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G124" t="s">
+        <v>145</v>
+      </c>
       <c r="H124" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>129</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G126" t="s">
+        <v>145</v>
+      </c>
       <c r="H126" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>129</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G129" t="s">
+        <v>145</v>
+      </c>
       <c r="H129" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>129</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G131" t="s">
+        <v>145</v>
+      </c>
       <c r="H131" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>141</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G132" t="s">
+        <v>159</v>
+      </c>
       <c r="H132" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>143</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G133" t="s">
+        <v>163</v>
+      </c>
       <c r="H133" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G135" t="s">
+        <v>163</v>
+      </c>
       <c r="H135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>143</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G137" t="s">
+        <v>163</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>143</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G139" t="s">
+        <v>163</v>
+      </c>
       <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>143</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G141" t="s">
+        <v>163</v>
+      </c>
       <c r="H141" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>143</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G143" t="s">
+        <v>163</v>
+      </c>
       <c r="H143" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>143</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G145" t="s">
+        <v>163</v>
+      </c>
       <c r="H145" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>143</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G147" t="s">
+        <v>163</v>
+      </c>
       <c r="H147" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>143</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G149" t="s">
+        <v>163</v>
+      </c>
       <c r="H149" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>143</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G151" t="s">
+        <v>163</v>
+      </c>
       <c r="H151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>143</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G154" t="s">
+        <v>163</v>
+      </c>
       <c r="H154" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>143</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G156" t="s">
+        <v>163</v>
+      </c>
       <c r="H156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G157" t="s">
+        <v>24</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>143</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G158" t="s">
+        <v>163</v>
+      </c>
       <c r="H158" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G159" t="s">
+        <v>24</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>143</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G160" t="s">
+        <v>163</v>
+      </c>
       <c r="H160" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G161" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>143</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G162" t="s">
+        <v>163</v>
+      </c>
       <c r="H162" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G163" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>143</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G164" t="s">
+        <v>163</v>
+      </c>
       <c r="H164" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s">
+        <v>24</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>143</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G166" t="s">
+        <v>163</v>
+      </c>
       <c r="H166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I166" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s">
+        <v>24</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>143</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G168" t="s">
+        <v>163</v>
+      </c>
       <c r="H168" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>143</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G170" t="s">
+        <v>163</v>
+      </c>
       <c r="H170" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I170" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G171" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>143</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G172" t="s">
+        <v>163</v>
+      </c>
       <c r="H172" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>143</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G174" t="s">
+        <v>163</v>
+      </c>
       <c r="H174" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I174" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G175" t="s">
+        <v>24</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>143</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G176" t="s">
+        <v>163</v>
+      </c>
       <c r="H176" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I176" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s">
+        <v>24</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>143</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G178" t="s">
+        <v>163</v>
+      </c>
       <c r="H178" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I178" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>143</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G180" t="s">
+        <v>163</v>
+      </c>
       <c r="H180" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I180" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>143</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G182" t="s">
+        <v>163</v>
+      </c>
       <c r="H182" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>143</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G184" t="s">
+        <v>163</v>
+      </c>
       <c r="H184" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I184" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>143</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G186" t="s">
+        <v>163</v>
+      </c>
       <c r="H186" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I186" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>143</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G188" t="s">
+        <v>163</v>
+      </c>
       <c r="H188" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I188" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G189" t="s">
+        <v>24</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>143</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G190" t="s">
+        <v>163</v>
+      </c>
       <c r="H190" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I190" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G191" t="s">
+        <v>27</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>143</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G192" t="s">
+        <v>163</v>
+      </c>
       <c r="H192" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I192" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G193" t="s">
+        <v>27</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>143</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G194" t="s">
+        <v>163</v>
+      </c>
       <c r="H194" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I194" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G195" t="s">
+        <v>27</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>143</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G196" t="s">
+        <v>163</v>
+      </c>
       <c r="H196" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G197" t="s">
+        <v>27</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>143</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G198" t="s">
+        <v>163</v>
+      </c>
       <c r="H198" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I198" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G199" t="s">
+        <v>24</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>143</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G200" t="s">
+        <v>163</v>
+      </c>
       <c r="H200" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I200" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>141</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G201" t="s">
+        <v>159</v>
+      </c>
       <c r="H201" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I201" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>143</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G202" t="s">
+        <v>163</v>
+      </c>
       <c r="H202" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>24</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>143</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G204" t="s">
+        <v>163</v>
+      </c>
       <c r="H204" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I204" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>24</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>143</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G206" t="s">
+        <v>163</v>
+      </c>
       <c r="H206" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I206" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>215</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G208" t="s">
+        <v>237</v>
+      </c>
       <c r="H208" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I208" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G209" t="s">
+        <v>24</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>215</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G210" t="s">
+        <v>237</v>
+      </c>
       <c r="H210" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I210" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>141</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G212" t="s">
+        <v>159</v>
+      </c>
       <c r="H212" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I212" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G213" t="s">
+        <v>24</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>141</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G214" t="s">
+        <v>159</v>
+      </c>
       <c r="H214" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I214" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s"/>
-      <c r="H215" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G215" t="s">
+        <v>27</v>
+      </c>
+      <c r="H215" t="s"/>
+      <c r="I215" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>141</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G216" t="s">
+        <v>159</v>
+      </c>
       <c r="H216" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I216" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G217" t="s">
+        <v>27</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>141</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G218" t="s">
+        <v>159</v>
+      </c>
       <c r="H218" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I218" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G219" t="s">
+        <v>27</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>141</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G220" t="s">
+        <v>159</v>
+      </c>
       <c r="H220" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I220" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
       <c r="H221" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>230</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G222" t="s">
+        <v>254</v>
+      </c>
       <c r="H222" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I222" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>24</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>230</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G224" t="s">
+        <v>254</v>
+      </c>
       <c r="H224" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I224" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>24</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>230</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G226" t="s">
+        <v>254</v>
+      </c>
       <c r="H226" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I226" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>24</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>230</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G228" t="s">
+        <v>254</v>
+      </c>
       <c r="H228" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I228" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>27</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>230</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G230" t="s">
+        <v>254</v>
+      </c>
       <c r="H230" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I230" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G231" t="s">
+        <v>27</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>230</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G232" t="s">
+        <v>254</v>
+      </c>
       <c r="H232" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I232" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G233" t="s">
+        <v>27</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>230</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G234" t="s">
+        <v>254</v>
+      </c>
       <c r="H234" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I234" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G235" t="s">
+        <v>24</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>230</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G236" t="s">
+        <v>254</v>
+      </c>
       <c r="H236" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I236" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s"/>
-      <c r="H237" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G237" t="s">
+        <v>24</v>
+      </c>
+      <c r="H237" t="s"/>
+      <c r="I237" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>230</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G238" t="s">
+        <v>254</v>
+      </c>
       <c r="H238" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I238" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s"/>
-      <c r="H239" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G239" t="s">
+        <v>24</v>
+      </c>
+      <c r="H239" t="s"/>
+      <c r="I239" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
-        <v>230</v>
-      </c>
-      <c r="G240" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G240" t="s">
+        <v>254</v>
+      </c>
       <c r="H240" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I240" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s"/>
-      <c r="H241" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G241" t="s">
+        <v>24</v>
+      </c>
+      <c r="H241" t="s"/>
+      <c r="I241" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
-        <v>230</v>
-      </c>
-      <c r="G242" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G242" t="s">
+        <v>254</v>
+      </c>
       <c r="H242" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I242" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
-      </c>
-      <c r="G243" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G243" t="s">
+        <v>13</v>
+      </c>
       <c r="H243" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
-      </c>
-      <c r="G244" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G244" t="s">
+        <v>17</v>
+      </c>
       <c r="H244" t="s">
-        <v>252</v>
+        <v>18</v>
+      </c>
+      <c r="I244" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
